--- a/students/all-students-2024-spring-presentations.xlsx
+++ b/students/all-students-2024-spring-presentations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012D057-F14C-AC47-9F75-1F026B7E766C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE52AD-8973-2A45-A821-BCB09E20584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51180" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="714">
   <si>
     <t>Last Name</t>
   </si>
@@ -2102,6 +2102,87 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>+ (Not in repo)</t>
+  </si>
+  <si>
+    <t>++ True/False</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>React not in repository</t>
+  </si>
+  <si>
+    <t>Kahoot API</t>
+  </si>
+  <si>
+    <t>Flagging questions</t>
+  </si>
+  <si>
+    <t>Sports category &amp; contact page</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <t>Inspecting</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Multiple Lists</t>
+  </si>
+  <si>
+    <t>Update name</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Touch icon</t>
+  </si>
+  <si>
+    <t>Analytics (test only)</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Maps (good)</t>
+  </si>
+  <si>
+    <t>Slideshow</t>
+  </si>
+  <si>
+    <t>Submitting content</t>
+  </si>
+  <si>
+    <t>Room numbers</t>
+  </si>
+  <si>
+    <t>Collecting crudentials</t>
+  </si>
+  <si>
+    <t>Graduating / updataing slides</t>
   </si>
 </sst>
 </file>
@@ -2109,8 +2190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -2709,7 +2790,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2764,46 +2845,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3169,8 +3239,8 @@
   </sheetPr>
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3281,38 +3351,38 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="str">
-        <f>RIGHT(T2,9)</f>
+      <c r="A2" s="41" t="str">
+        <f t="shared" ref="A2:A8" si="0">RIGHT(T2,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B2" s="33">
-        <f>U2</f>
+        <f t="shared" ref="B2:B8" si="1">U2</f>
         <v>12</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="48" t="str">
-        <f>CONCATENATE(E2," ",V2)</f>
+      <c r="D2" s="41" t="str">
+        <f t="shared" ref="D2:D8" si="2">CONCATENATE(E2," ",V2)</f>
         <v>Robin Pobanz-Pawlak</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F2" s="41">
         <v>3</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="41" t="s">
         <v>652</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10">
         <v>1</v>
@@ -3320,14 +3390,14 @@
       <c r="O2" s="34" t="s">
         <v>682</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="43">
         <v>45415.541666666664</v>
       </c>
-      <c r="Q2" s="51">
-        <f>P2</f>
+      <c r="Q2" s="44">
+        <f t="shared" ref="Q2:Q33" si="3">P2</f>
         <v>45415.541666666664</v>
       </c>
-      <c r="R2" s="47"/>
+      <c r="R2" s="32"/>
       <c r="S2" s="5"/>
       <c r="T2" s="3" t="s">
         <v>513</v>
@@ -3350,18 +3420,18 @@
     </row>
     <row r="3" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f>RIGHT(T3,9)</f>
+        <f t="shared" si="0"/>
         <v>49200-002</v>
       </c>
       <c r="B3" s="4">
-        <f>U3</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>CONCATENATE(E3," ",V3)</f>
+        <f t="shared" si="2"/>
         <v>Alex Hernandez</v>
       </c>
       <c r="E3" s="3" t="str">
@@ -3383,7 +3453,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q3" s="32">
-        <f>P3</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R3" s="32"/>
@@ -3406,21 +3476,24 @@
       <c r="Y3" t="s">
         <v>614</v>
       </c>
+      <c r="Z3" s="19" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
-        <f>RIGHT(T4,9)</f>
+        <f t="shared" si="0"/>
         <v>49200-002</v>
       </c>
       <c r="B4" s="4">
-        <f>U4</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>CONCATENATE(E4," ",V4)</f>
+        <f t="shared" si="2"/>
         <v>Alex Kaminski</v>
       </c>
       <c r="E4" s="3" t="str">
@@ -3445,7 +3518,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q4" s="32">
-        <f>P4</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R4" s="32"/>
@@ -3468,21 +3541,24 @@
       <c r="Y4" t="s">
         <v>136</v>
       </c>
+      <c r="Z4" s="19" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
-        <f>RIGHT(T5,9)</f>
+        <f t="shared" si="0"/>
         <v>49200-002</v>
       </c>
       <c r="B5" s="4">
-        <f>U5</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>CONCATENATE(E5," ",V5)</f>
+        <f t="shared" si="2"/>
         <v>Evan Hartke</v>
       </c>
       <c r="E5" s="3" t="str">
@@ -3504,7 +3580,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q5" s="32">
-        <f>P5</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R5" s="32"/>
@@ -3527,21 +3603,24 @@
       <c r="Y5" t="s">
         <v>612</v>
       </c>
+      <c r="Z5" s="19" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
-        <f>RIGHT(T6,9)</f>
+        <f t="shared" si="0"/>
         <v>49200-002</v>
       </c>
       <c r="B6" s="4">
-        <f>U6</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>CONCATENATE(E6," ",V6)</f>
+        <f t="shared" si="2"/>
         <v>James Mackowiak</v>
       </c>
       <c r="E6" s="3" t="str">
@@ -3566,7 +3645,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q6" s="32">
-        <f>P6</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R6" s="32"/>
@@ -3589,21 +3668,24 @@
       <c r="Y6" t="s">
         <v>139</v>
       </c>
+      <c r="Z6" s="19" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
-        <f>RIGHT(T7,9)</f>
+        <f t="shared" si="0"/>
         <v>49200-002</v>
       </c>
       <c r="B7" s="4">
-        <f>U7</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>CONCATENATE(E7," ",V7)</f>
+        <f t="shared" si="2"/>
         <v>Z Albaz</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3624,7 +3706,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q7" s="32">
-        <f>P7</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R7" s="32"/>
@@ -3647,21 +3729,24 @@
       <c r="Y7" t="s">
         <v>104</v>
       </c>
+      <c r="Z7" s="19" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
-        <f>RIGHT(T8,9)</f>
+        <f t="shared" si="0"/>
         <v>44000-001</v>
       </c>
       <c r="B8" s="4">
-        <f>U8</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>CONCATENATE(E8," ",V8)</f>
+        <f t="shared" si="2"/>
         <v>Hima Madhavan</v>
       </c>
       <c r="E8" s="3" t="str">
@@ -3697,7 +3782,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q8" s="32">
-        <f>P8</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R8" s="32"/>
@@ -3720,6 +3805,9 @@
       <c r="Y8" s="3" t="s">
         <v>564</v>
       </c>
+      <c r="Z8" s="19" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -3763,25 +3851,25 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q9" s="32">
-        <f>P9</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
-        <f>RIGHT(T10,9)</f>
+        <f t="shared" ref="A10:A20" si="4">RIGHT(T10,9)</f>
         <v>44000-001</v>
       </c>
       <c r="B10" s="4">
-        <f>U10</f>
+        <f t="shared" ref="B10:B20" si="5">U10</f>
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>CONCATENATE(E10," ",V10)</f>
+        <f t="shared" ref="D10:D20" si="6">CONCATENATE(E10," ",V10)</f>
         <v>Brian Gutt</v>
       </c>
       <c r="E10" s="3" t="str">
@@ -3817,7 +3905,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q10" s="32">
-        <f>P10</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R10" s="32"/>
@@ -3840,21 +3928,24 @@
       <c r="Y10" s="3" t="s">
         <v>546</v>
       </c>
+      <c r="Z10" s="19" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
-        <f>RIGHT(T11,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B11" s="4">
-        <f>U11</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>CONCATENATE(E11," ",V11)</f>
+        <f t="shared" si="6"/>
         <v>Daniel Jazowski</v>
       </c>
       <c r="E11" s="3" t="str">
@@ -3890,7 +3981,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q11" s="32">
-        <f>P11</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R11" s="32"/>
@@ -3913,21 +4004,24 @@
       <c r="Y11" s="3" t="s">
         <v>552</v>
       </c>
+      <c r="Z11" s="19" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
-        <f>RIGHT(T12,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B12" s="4">
-        <f>U12</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>CONCATENATE(E12," ",V12)</f>
+        <f t="shared" si="6"/>
         <v>Jayrell Garcia</v>
       </c>
       <c r="E12" s="3" t="str">
@@ -3963,7 +4057,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q12" s="32">
-        <f>P12</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R12" s="32"/>
@@ -3986,21 +4080,24 @@
       <c r="Y12" s="3" t="s">
         <v>543</v>
       </c>
+      <c r="Z12" s="19" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
-        <f>RIGHT(T13,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B13" s="4">
-        <f>U13</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>CONCATENATE(E13," ",V13)</f>
+        <f t="shared" si="6"/>
         <v>Syver Klungsoyr</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4032,7 +4129,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q13" s="32">
-        <f>P13</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R13" s="32"/>
@@ -4055,21 +4152,24 @@
       <c r="Y13" s="3" t="s">
         <v>556</v>
       </c>
+      <c r="Z13" s="19" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
-        <f>RIGHT(T14,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B14" s="4">
-        <f>U14</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>CONCATENATE(E14," ",V14)</f>
+        <f t="shared" si="6"/>
         <v>Morgan Krupp</v>
       </c>
       <c r="E14" s="3" t="str">
@@ -4105,7 +4205,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q14" s="32">
-        <f>P14</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R14" s="32"/>
@@ -4128,21 +4228,24 @@
       <c r="Y14" s="3" t="s">
         <v>560</v>
       </c>
+      <c r="Z14" s="19" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
-        <f>RIGHT(T15,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B15" s="4">
-        <f>U15</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>CONCATENATE(E15," ",V15)</f>
+        <f t="shared" si="6"/>
         <v>Isaac Benka</v>
       </c>
       <c r="E15" s="3" t="str">
@@ -4175,7 +4278,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q15" s="32">
-        <f>P15</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R15" s="32"/>
@@ -4198,21 +4301,24 @@
       <c r="Y15" s="3" t="s">
         <v>521</v>
       </c>
+      <c r="Z15" s="3" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
-        <f>RIGHT(T16,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B16" s="4">
-        <f>U16</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>CONCATENATE(E16," ",V16)</f>
+        <f t="shared" si="6"/>
         <v>Aaron Skonieczny</v>
       </c>
       <c r="E16" s="3" t="str">
@@ -4248,7 +4354,7 @@
         <v>45419.395833333336</v>
       </c>
       <c r="Q16" s="32">
-        <f>P16</f>
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R16" s="32"/>
@@ -4271,40 +4377,43 @@
       <c r="Y16" s="3" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="str">
-        <f>RIGHT(T17,9)</f>
+      <c r="Z16" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B17" s="4">
-        <f>U17</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="38" t="str">
-        <f>CONCATENATE(E17," ",V17)</f>
+      <c r="D17" s="37" t="str">
+        <f t="shared" si="6"/>
         <v>Ahmad Yousuf</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>W17</f>
         <v>Ahmad</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>2</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="37" t="s">
         <v>641</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="L17" s="39" t="str">
+      <c r="L17" s="38" t="str">
         <f>Products!$A$5</f>
         <v>QuizMasterKahoot!</v>
       </c>
@@ -4317,11 +4426,11 @@
       <c r="O17" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="39">
         <v>45419.395833333336</v>
       </c>
-      <c r="Q17" s="41">
-        <f>P17</f>
+      <c r="Q17" s="40">
+        <f t="shared" si="3"/>
         <v>45419.395833333336</v>
       </c>
       <c r="R17" s="32"/>
@@ -4344,21 +4453,24 @@
       <c r="Y17" s="3" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
-        <f>RIGHT(T18,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B18" s="4">
-        <f>U18</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>CONCATENATE(E18," ",V18)</f>
+        <f t="shared" si="6"/>
         <v>Matt Obrochta</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -4392,7 +4504,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q18" s="32">
-        <f>P18</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R18" s="32"/>
@@ -4415,21 +4527,24 @@
       <c r="Y18" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
-        <f>RIGHT(T19,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B19" s="4">
-        <f>U19</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>CONCATENATE(E19," ",V19)</f>
+        <f t="shared" si="6"/>
         <v>Ivan Sanchez</v>
       </c>
       <c r="E19" s="3" t="str">
@@ -4464,7 +4579,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q19" s="32">
-        <f>P19</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R19" s="32"/>
@@ -4487,21 +4602,24 @@
       <c r="Y19" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
-        <f>RIGHT(T20,9)</f>
+        <f t="shared" si="4"/>
         <v>44000-001</v>
       </c>
       <c r="B20" s="4">
-        <f>U20</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>CONCATENATE(E20," ",V20)</f>
+        <f t="shared" si="6"/>
         <v>Matt Bilinski</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -4535,7 +4653,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q20" s="32">
-        <f>P20</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R20" s="32"/>
@@ -4558,8 +4676,11 @@
       <c r="Y20" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>637</v>
       </c>
@@ -4601,30 +4722,33 @@
         <v>45419.4375</v>
       </c>
       <c r="Q21" s="32">
-        <f>P21</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z21" s="19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
-        <f>RIGHT(T22,9)</f>
+        <f t="shared" ref="A22:A44" si="7">RIGHT(T22,9)</f>
         <v>49200-002</v>
       </c>
       <c r="B22" s="4">
-        <f>U22</f>
+        <f t="shared" ref="B22:B44" si="8">U22</f>
         <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE(E22," ",V22)</f>
+        <f t="shared" ref="D22:D44" si="9">CONCATENATE(E22," ",V22)</f>
         <v>Julian Rocha</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>W22</f>
+        <f t="shared" ref="E22:E28" si="10">W22</f>
         <v>Julian</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -4645,7 +4769,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q22" s="32">
-        <f>P22</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R22" s="32"/>
@@ -4668,25 +4792,28 @@
       <c r="Y22" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
-        <f>RIGHT(T23,9)</f>
+        <f t="shared" si="7"/>
         <v>49200-002</v>
       </c>
       <c r="B23" s="4">
-        <f>U23</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE(E23," ",V23)</f>
+        <f t="shared" si="9"/>
         <v>Amna Tasneem</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>W23</f>
+        <f t="shared" si="10"/>
         <v>Amna</v>
       </c>
       <c r="I23" s="3" t="s">
@@ -4707,7 +4834,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q23" s="32">
-        <f>P23</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R23" s="32"/>
@@ -4730,25 +4857,28 @@
       <c r="Y23" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
-        <f>RIGHT(T24,9)</f>
+        <f t="shared" si="7"/>
         <v>49200-002</v>
       </c>
       <c r="B24" s="4">
-        <f>U24</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE(E24," ",V24)</f>
+        <f t="shared" si="9"/>
         <v>David Abrutis</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>W24</f>
+        <f t="shared" si="10"/>
         <v>David</v>
       </c>
       <c r="I24" s="3" t="s">
@@ -4767,7 +4897,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q24" s="32">
-        <f>P24</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R24" s="32"/>
@@ -4790,25 +4920,28 @@
       <c r="Y24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
-        <f>RIGHT(T25,9)</f>
+        <f t="shared" si="7"/>
         <v>49200-002</v>
       </c>
       <c r="B25" s="4">
-        <f>U25</f>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE(E25," ",V25)</f>
+        <f t="shared" si="9"/>
         <v>Pablo Enriquez</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>W25</f>
+        <f t="shared" si="10"/>
         <v>Pablo</v>
       </c>
       <c r="I25" s="3" t="s">
@@ -4827,7 +4960,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q25" s="32">
-        <f>P25</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R25" s="32"/>
@@ -4850,25 +4983,28 @@
       <c r="Y25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
-        <f>RIGHT(T26,9)</f>
+        <f t="shared" si="7"/>
         <v>49200-002</v>
       </c>
       <c r="B26" s="4">
-        <f>U26</f>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE(E26," ",V26)</f>
+        <f t="shared" si="9"/>
         <v>Shane Frantz</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>W26</f>
+        <f t="shared" si="10"/>
         <v>Shane</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -4886,7 +5022,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q26" s="32">
-        <f>P26</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R26" s="32"/>
@@ -4909,25 +5045,28 @@
       <c r="Y26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z26" s="19" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
-        <f>RIGHT(T27,9)</f>
+        <f t="shared" si="7"/>
         <v>49200-002</v>
       </c>
       <c r="B27" s="4">
-        <f>U27</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE(E27," ",V27)</f>
+        <f t="shared" si="9"/>
         <v>Luke Mendiola</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>W27</f>
+        <f t="shared" si="10"/>
         <v>Luke</v>
       </c>
       <c r="I27" s="3" t="s">
@@ -4945,7 +5084,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q27" s="32">
-        <f>P27</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R27" s="32"/>
@@ -4968,25 +5107,28 @@
       <c r="Y27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
-        <f>RIGHT(T28,9)</f>
+        <f t="shared" si="7"/>
         <v>49200-002</v>
       </c>
       <c r="B28" s="4">
-        <f>U28</f>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE(E28," ",V28)</f>
+        <f t="shared" si="9"/>
         <v>Jacob Prince</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>W28</f>
+        <f t="shared" si="10"/>
         <v>Jacob</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -5004,7 +5146,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q28" s="32">
-        <f>P28</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R28" s="32"/>
@@ -5028,20 +5170,20 @@
         <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
-        <f>RIGHT(T29,9)</f>
+        <f t="shared" si="7"/>
         <v>44000-001</v>
       </c>
       <c r="B29" s="4">
-        <f>U29</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE(E29," ",V29)</f>
+        <f t="shared" si="9"/>
         <v>Ben Smith</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5072,7 +5214,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q29" s="32">
-        <f>P29</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R29" s="32"/>
@@ -5095,21 +5237,24 @@
       <c r="Y29" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
-        <f>RIGHT(T30,9)</f>
+        <f t="shared" si="7"/>
         <v>44000-001</v>
       </c>
       <c r="B30" s="4">
-        <f>U30</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE(E30," ",V30)</f>
+        <f t="shared" si="9"/>
         <v>Justin Cordero</v>
       </c>
       <c r="E30" s="3" t="str">
@@ -5144,7 +5289,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q30" s="32">
-        <f>P30</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R30" s="32"/>
@@ -5167,21 +5312,24 @@
       <c r="Y30" s="3" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
-        <f>RIGHT(T31,9)</f>
+        <f t="shared" si="7"/>
         <v>44000-001</v>
       </c>
       <c r="B31" s="4">
-        <f>U31</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE(E31," ",V31)</f>
+        <f t="shared" si="9"/>
         <v>Ryan Dodson</v>
       </c>
       <c r="E31" s="3" t="str">
@@ -5215,7 +5363,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q31" s="32">
-        <f>P31</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R31" s="32"/>
@@ -5238,21 +5386,24 @@
       <c r="Y31" s="3" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
-        <f>RIGHT(T32,9)</f>
+        <f t="shared" si="7"/>
         <v>44000-001</v>
       </c>
       <c r="B32" s="4">
-        <f>U32</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE(E32," ",V32)</f>
+        <f t="shared" si="9"/>
         <v>Michael Szostak</v>
       </c>
       <c r="E32" s="3" t="str">
@@ -5286,7 +5437,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q32" s="32">
-        <f>P32</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R32" s="32"/>
@@ -5309,21 +5460,24 @@
       <c r="Y32" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
-        <f>RIGHT(T33,9)</f>
+        <f t="shared" si="7"/>
         <v>44000-001</v>
       </c>
       <c r="B33" s="4">
-        <f>U33</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>CONCATENATE(E33," ",V33)</f>
+        <f t="shared" si="9"/>
         <v>Gabe Carlson</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -5358,7 +5512,7 @@
         <v>45419.4375</v>
       </c>
       <c r="Q33" s="32">
-        <f>P33</f>
+        <f t="shared" si="3"/>
         <v>45419.4375</v>
       </c>
       <c r="R33" s="32"/>
@@ -5381,37 +5535,40 @@
       <c r="Y33" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="str">
-        <f>RIGHT(T34,9)</f>
+      <c r="Z33" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="str">
+        <f t="shared" si="7"/>
         <v>44000-001</v>
       </c>
       <c r="B34" s="4">
-        <f>U34</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="38" t="str">
-        <f>CONCATENATE(E34," ",V34)</f>
+      <c r="D34" s="37" t="str">
+        <f t="shared" si="9"/>
         <v>Ryan Hinkle</v>
       </c>
       <c r="E34" s="3" t="str">
         <f>W34</f>
         <v>Ryan</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>6</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="L34" s="39" t="str">
+      <c r="L34" s="38" t="str">
         <f>Products!$A$3</f>
         <v>ECaMS Billboard</v>
       </c>
@@ -5424,11 +5581,11 @@
       <c r="O34" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="P34" s="40">
+      <c r="P34" s="39">
         <v>45419.4375</v>
       </c>
-      <c r="Q34" s="41">
-        <f>P34</f>
+      <c r="Q34" s="40">
+        <f t="shared" ref="Q34:Q63" si="11">P34</f>
         <v>45419.4375</v>
       </c>
       <c r="R34" s="32"/>
@@ -5452,28 +5609,26 @@
         <v>549</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
-        <f>RIGHT(T35,9)</f>
+        <f t="shared" si="7"/>
         <v>44500-001</v>
       </c>
       <c r="B35" s="4">
-        <f>U35</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>CONCATENATE(E35," ",V35)</f>
+        <f t="shared" si="9"/>
         <v>Julie Dosher</v>
       </c>
       <c r="E35" s="3" t="str">
         <f>W35</f>
         <v>Julie</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
       <c r="H35" s="21"/>
       <c r="I35" s="3" t="s">
         <v>629</v>
@@ -5491,7 +5646,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q35" s="32">
-        <f>P35</f>
+        <f t="shared" si="11"/>
         <v>45420.4375</v>
       </c>
       <c r="R35" s="32"/>
@@ -5515,28 +5670,26 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
-        <f>RIGHT(T36,9)</f>
+        <f t="shared" si="7"/>
         <v>44500-001</v>
       </c>
       <c r="B36" s="4">
-        <f>U36</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>CONCATENATE(E36," ",V36)</f>
+        <f t="shared" si="9"/>
         <v>Collin Koldoff</v>
       </c>
       <c r="E36" s="3" t="str">
         <f>W36</f>
         <v>Collin</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
       <c r="H36" s="21"/>
       <c r="I36" s="3" t="s">
         <v>629</v>
@@ -5551,7 +5704,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q36" s="32">
-        <f>P36</f>
+        <f t="shared" si="11"/>
         <v>45420.4375</v>
       </c>
       <c r="R36" s="32"/>
@@ -5575,28 +5728,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
-        <f>RIGHT(T37,9)</f>
+        <f t="shared" si="7"/>
         <v>44500-001</v>
       </c>
       <c r="B37" s="4">
-        <f>U37</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>CONCATENATE(E37," ",V37)</f>
+        <f t="shared" si="9"/>
         <v>Luke Mendiola</v>
       </c>
       <c r="E37" s="3" t="str">
         <f>W37</f>
         <v>Luke</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
       <c r="H37" s="21"/>
       <c r="I37" s="3" t="s">
         <v>629</v>
@@ -5611,7 +5762,7 @@
         <v>45420.4375</v>
       </c>
       <c r="Q37" s="32">
-        <f>P37</f>
+        <f t="shared" si="11"/>
         <v>45420.4375</v>
       </c>
       <c r="R37" s="32"/>
@@ -5635,43 +5786,41 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="str">
-        <f>RIGHT(T38,9)</f>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>44500-001</v>
       </c>
       <c r="B38" s="4">
-        <f>U38</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="42" t="str">
-        <f>CONCATENATE(E38," ",V38)</f>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Justina Piwoni</v>
       </c>
       <c r="E38" s="3" t="str">
         <f>W38</f>
         <v>Justina</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="L38" s="44"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="36">
         <v>45420.4375</v>
       </c>
-      <c r="Q38" s="46">
-        <f>P38</f>
+      <c r="Q38" s="32">
+        <f t="shared" si="11"/>
         <v>45420.4375</v>
       </c>
       <c r="R38" s="32"/>
@@ -5695,20 +5844,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
-        <f>RIGHT(T39,9)</f>
+        <f t="shared" si="7"/>
         <v>20000-002</v>
       </c>
       <c r="B39" s="4">
-        <f>U39</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>CONCATENATE(E39," ",V39)</f>
+        <f t="shared" si="9"/>
         <v>Sindre Haltbakk</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -5735,7 +5884,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q39" s="32">
-        <f>P39</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R39" s="32"/>
@@ -5759,20 +5908,20 @@
         <v>477</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
-        <f>RIGHT(T40,9)</f>
+        <f t="shared" si="7"/>
         <v>20000-002</v>
       </c>
       <c r="B40" s="4">
-        <f>U40</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>CONCATENATE(E40," ",V40)</f>
+        <f t="shared" si="9"/>
         <v>Zander Bird</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -5799,7 +5948,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q40" s="32">
-        <f>P40</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R40" s="32"/>
@@ -5823,20 +5972,20 @@
         <v>466</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
-        <f>RIGHT(T41,9)</f>
+        <f t="shared" si="7"/>
         <v>20000-002</v>
       </c>
       <c r="B41" s="4">
-        <f>U41</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>CONCATENATE(E41," ",V41)</f>
+        <f t="shared" si="9"/>
         <v>Aaron Wilson Perez</v>
       </c>
       <c r="E41" s="3" t="str">
@@ -5867,7 +6016,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q41" s="32">
-        <f>P41</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R41" s="32"/>
@@ -5891,20 +6040,20 @@
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
-        <f>RIGHT(T42,9)</f>
+        <f t="shared" si="7"/>
         <v>20000-002</v>
       </c>
       <c r="B42" s="4">
-        <f>U42</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>CONCATENATE(E42," ",V42)</f>
+        <f t="shared" si="9"/>
         <v>Dan Monbrod</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -5931,7 +6080,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q42" s="32">
-        <f>P42</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R42" s="32"/>
@@ -5955,20 +6104,20 @@
         <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
-        <f>RIGHT(T43,9)</f>
+        <f t="shared" si="7"/>
         <v>20000-002</v>
       </c>
       <c r="B43" s="4">
-        <f>U43</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>CONCATENATE(E43," ",V43)</f>
+        <f t="shared" si="9"/>
         <v>Mike Liberty</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -5995,7 +6144,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q43" s="32">
-        <f>P43</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R43" s="32"/>
@@ -6019,20 +6168,20 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
-        <f>RIGHT(T44,9)</f>
+        <f t="shared" si="7"/>
         <v>20000-002</v>
       </c>
       <c r="B44" s="4">
-        <f>U44</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>CONCATENATE(E44," ",V44)</f>
+        <f t="shared" si="9"/>
         <v>Darko Ilic</v>
       </c>
       <c r="E44" s="3" t="str">
@@ -6060,7 +6209,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q44" s="32">
-        <f>P44</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R44" s="32"/>
@@ -6084,7 +6233,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>649</v>
       </c>
@@ -6119,12 +6268,12 @@
         <v>45420.5625</v>
       </c>
       <c r="Q45" s="32">
-        <f>P45</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R45" s="32"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>RIGHT(T46,9)</f>
         <v>20000-002</v>
@@ -6165,7 +6314,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q46" s="32">
-        <f>P46</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R46" s="32"/>
@@ -6189,7 +6338,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>RIGHT(T47,9)</f>
         <v>20000-002</v>
@@ -6232,7 +6381,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q47" s="32">
-        <f>P47</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R47" s="32"/>
@@ -6256,7 +6405,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>649</v>
       </c>
@@ -6291,7 +6440,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q48" s="32">
-        <f>P48</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R48" s="32"/>
@@ -6337,7 +6486,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q49" s="32">
-        <f>P49</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R49" s="32"/>
@@ -6404,7 +6553,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q50" s="32">
-        <f>P50</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R50" s="32"/>
@@ -6469,7 +6618,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q51" s="32">
-        <f>P51</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R51" s="32"/>
@@ -6533,7 +6682,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q52" s="32">
-        <f>P52</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R52" s="32"/>
@@ -6558,7 +6707,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>649</v>
       </c>
       <c r="B53" s="4">
@@ -6567,51 +6716,51 @@
       <c r="C53" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="37" t="s">
         <v>655</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="37">
         <v>6</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="I53" s="38" t="s">
+      <c r="I53" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="L53" s="38"/>
+      <c r="L53" s="37"/>
       <c r="N53" s="10">
         <v>6</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="P53" s="40">
+      <c r="P53" s="39">
         <v>45420.5625</v>
       </c>
-      <c r="Q53" s="41">
-        <f>P53</f>
+      <c r="Q53" s="40">
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R53" s="32"/>
     </row>
     <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
-        <f>RIGHT(T54,9)</f>
+        <f t="shared" ref="A54:A66" si="12">RIGHT(T54,9)</f>
         <v>20000-002</v>
       </c>
       <c r="B54" s="4">
-        <f>U54</f>
+        <f t="shared" ref="B54:B66" si="13">U54</f>
         <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>CONCATENATE(E54," ",V54)</f>
+        <f t="shared" ref="D54:D66" si="14">CONCATENATE(E54," ",V54)</f>
         <v>Tyson Knight</v>
       </c>
       <c r="E54" s="3" t="str">
@@ -6634,7 +6783,7 @@
         <v>45420.5625</v>
       </c>
       <c r="Q54" s="32">
-        <f>P54</f>
+        <f t="shared" si="11"/>
         <v>45420.5625</v>
       </c>
       <c r="R54" s="32"/>
@@ -6660,18 +6809,18 @@
     </row>
     <row r="55" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
-        <f>RIGHT(T55,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B55" s="4">
-        <f>U55</f>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>CONCATENATE(E55," ",V55)</f>
+        <f t="shared" si="14"/>
         <v>Nico Paredes</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -6705,7 +6854,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q55" s="32">
-        <f>P55</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R55" s="32"/>
@@ -6731,22 +6880,22 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
-        <f>RIGHT(T56,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B56" s="4">
-        <f>U56</f>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>CONCATENATE(E56," ",V56)</f>
+        <f t="shared" si="14"/>
         <v>Julian Pizano</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f>W56</f>
+        <f t="shared" ref="E56:E62" si="15">W56</f>
         <v>Julian</v>
       </c>
       <c r="F56" s="3">
@@ -6777,7 +6926,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q56" s="32">
-        <f>P56</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R56" s="32"/>
@@ -6803,22 +6952,22 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
-        <f>RIGHT(T57,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B57" s="4">
-        <f>U57</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>CONCATENATE(E57," ",V57)</f>
+        <f t="shared" si="14"/>
         <v>Stephen Feddes</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f>W57</f>
+        <f t="shared" si="15"/>
         <v>Stephen</v>
       </c>
       <c r="F57" s="3">
@@ -6849,7 +6998,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q57" s="32">
-        <f>P57</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R57" s="32"/>
@@ -6875,22 +7024,22 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
-        <f>RIGHT(T58,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B58" s="4">
-        <f>U58</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>CONCATENATE(E58," ",V58)</f>
+        <f t="shared" si="14"/>
         <v>Kevin Zamudio</v>
       </c>
       <c r="E58" s="3" t="str">
-        <f>W58</f>
+        <f t="shared" si="15"/>
         <v>Kevin</v>
       </c>
       <c r="F58" s="3">
@@ -6918,7 +7067,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q58" s="32">
-        <f>P58</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R58" s="32"/>
@@ -6944,22 +7093,22 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
-        <f>RIGHT(T59,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B59" s="4">
-        <f>U59</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>CONCATENATE(E59," ",V59)</f>
+        <f t="shared" si="14"/>
         <v>Olivia Adamic</v>
       </c>
       <c r="E59" s="3" t="str">
-        <f>W59</f>
+        <f t="shared" si="15"/>
         <v>Olivia</v>
       </c>
       <c r="F59" s="3">
@@ -6991,7 +7140,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q59" s="32">
-        <f>P59</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R59" s="32"/>
@@ -7017,22 +7166,22 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
-        <f>RIGHT(T60,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B60" s="4">
-        <f>U60</f>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>CONCATENATE(E60," ",V60)</f>
+        <f t="shared" si="14"/>
         <v>Emilio Vilchis</v>
       </c>
       <c r="E60" s="3" t="str">
-        <f>W60</f>
+        <f t="shared" si="15"/>
         <v>Emilio</v>
       </c>
       <c r="F60" s="3">
@@ -7064,7 +7213,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q60" s="32">
-        <f>P60</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R60" s="32"/>
@@ -7090,22 +7239,22 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
-        <f>RIGHT(T61,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B61" s="4">
-        <f>U61</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>CONCATENATE(E61," ",V61)</f>
+        <f t="shared" si="14"/>
         <v>Kevin Danowski</v>
       </c>
       <c r="E61" s="3" t="str">
-        <f>W61</f>
+        <f t="shared" si="15"/>
         <v>Kevin</v>
       </c>
       <c r="F61" s="3">
@@ -7134,7 +7283,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q61" s="32">
-        <f>P61</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R61" s="32"/>
@@ -7160,22 +7309,22 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
-        <f>RIGHT(T62,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B62" s="4">
-        <f>U62</f>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>CONCATENATE(E62," ",V62)</f>
+        <f t="shared" si="14"/>
         <v>Logan Prasczewicz</v>
       </c>
       <c r="E62" s="3" t="str">
-        <f>W62</f>
+        <f t="shared" si="15"/>
         <v>Logan</v>
       </c>
       <c r="F62" s="3">
@@ -7207,7 +7356,7 @@
         <v>45422.4375</v>
       </c>
       <c r="Q62" s="32">
-        <f>P62</f>
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R62" s="32"/>
@@ -7232,34 +7381,34 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="str">
-        <f>RIGHT(T63,9)</f>
+      <c r="A63" s="37" t="str">
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B63" s="4">
-        <f>U63</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D63" s="38" t="str">
-        <f>CONCATENATE(E63," ",V63)</f>
+      <c r="D63" s="37" t="str">
+        <f t="shared" si="14"/>
         <v>Joshua Brown</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="37">
         <v>5</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="L63" s="39" t="str">
+      <c r="L63" s="38" t="str">
         <f>Products!$A$6</f>
         <v>SyllliMa</v>
       </c>
@@ -7272,11 +7421,11 @@
       <c r="O63" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="P63" s="40">
+      <c r="P63" s="39">
         <v>45422.4375</v>
       </c>
-      <c r="Q63" s="41">
-        <f>P63</f>
+      <c r="Q63" s="40">
+        <f t="shared" si="11"/>
         <v>45422.4375</v>
       </c>
       <c r="R63" s="32"/>
@@ -7302,18 +7451,18 @@
     </row>
     <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
-        <f>RIGHT(T64,9)</f>
+        <f t="shared" si="12"/>
         <v>20000-002</v>
       </c>
       <c r="B64" s="4">
-        <f>U64</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>417</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>CONCATENATE(E64," ",V64)</f>
+        <f t="shared" si="14"/>
         <v>Gene Anderson</v>
       </c>
       <c r="E64" s="3" t="str">
@@ -7358,18 +7507,18 @@
     </row>
     <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
-        <f>RIGHT(T65,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B65" s="4">
-        <f>U65</f>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>418</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>CONCATENATE(E65," ",V65)</f>
+        <f t="shared" si="14"/>
         <v>Ithalo Mercado</v>
       </c>
       <c r="E65" s="3" t="str">
@@ -7413,18 +7562,18 @@
     </row>
     <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
-        <f>RIGHT(T66,9)</f>
+        <f t="shared" si="12"/>
         <v>44000-001</v>
       </c>
       <c r="B66" s="4">
-        <f>U66</f>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>418</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f>CONCATENATE(E66," ",V66)</f>
+        <f t="shared" si="14"/>
         <v>Moattar Siddiqui</v>
       </c>
       <c r="E66" s="3" t="str">

--- a/students/all-students-2024-spring-presentations.xlsx
+++ b/students/all-students-2024-spring-presentations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE52AD-8973-2A45-A821-BCB09E20584F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB2D14-F2CE-274D-9288-297CD1FE8398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45820" yWindow="-2580" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="717">
   <si>
     <t>Last Name</t>
   </si>
@@ -2183,6 +2183,15 @@
   </si>
   <si>
     <t>Graduating / updataing slides</t>
+  </si>
+  <si>
+    <t>Okay, no server</t>
+  </si>
+  <si>
+    <t>No working</t>
+  </si>
+  <si>
+    <t>Great</t>
   </si>
 </sst>
 </file>
@@ -3239,8 +3248,8 @@
   </sheetPr>
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5669,6 +5678,9 @@
       <c r="Y35" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="Z35" s="3" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
@@ -5727,6 +5739,9 @@
       <c r="Y36" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="Z36" s="3" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
@@ -5785,9 +5800,12 @@
       <c r="Y37" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="str">
+      <c r="Z37" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="str">
         <f t="shared" si="7"/>
         <v>44500-001</v>
       </c>
@@ -5798,7 +5816,7 @@
       <c r="C38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="D38" s="37" t="str">
         <f t="shared" si="9"/>
         <v>Justina Piwoni</v>
       </c>
@@ -5806,20 +5824,22 @@
         <f>W38</f>
         <v>Justina</v>
       </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="37" t="s">
         <v>629</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="39">
         <v>45420.4375</v>
       </c>
-      <c r="Q38" s="32">
+      <c r="Q38" s="40">
         <f t="shared" si="11"/>
         <v>45420.4375</v>
       </c>
@@ -5843,8 +5863,11 @@
       <c r="Y38" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z38" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="7"/>
         <v>20000-002</v>

--- a/students/all-students-2024-spring-presentations.xlsx
+++ b/students/all-students-2024-spring-presentations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/epogue/Repositories/lewis-education-static/students/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAB2D14-F2CE-274D-9288-297CD1FE8398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4C8422-5416-3B44-9C4A-BBEEC58F44D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45820" yWindow="-2580" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24-spring" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="729">
   <si>
     <t>Last Name</t>
   </si>
@@ -2192,6 +2192,42 @@
   </si>
   <si>
     <t>Great</t>
+  </si>
+  <si>
+    <t>FlexBox Movies (very nice local storage)</t>
+  </si>
+  <si>
+    <t>Domain Name and Web site (very nice)</t>
+  </si>
+  <si>
+    <t>Crossword</t>
+  </si>
+  <si>
+    <t>Letters with  Turtle</t>
+  </si>
+  <si>
+    <t>Aircraft (very nice)</t>
+  </si>
+  <si>
+    <t>Style Quiz (really nice!)… wow</t>
+  </si>
+  <si>
+    <t>Luxufy.car (domain)… well done!</t>
+  </si>
+  <si>
+    <t>Pong with Python</t>
+  </si>
+  <si>
+    <t>Matchmaker Python/Dog/Language</t>
+  </si>
+  <si>
+    <t>ColorBear… wonderful!</t>
+  </si>
+  <si>
+    <t>CarMatcher</t>
+  </si>
+  <si>
+    <t>Partially complete… memory madness (full credit)</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2629,6 +2665,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2799,7 +2841,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2883,6 +2925,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3248,8 +3291,8 @@
   </sheetPr>
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5930,6 +5973,9 @@
       <c r="Y39" s="3" t="s">
         <v>477</v>
       </c>
+      <c r="Z39" s="3" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
@@ -5994,6 +6040,9 @@
       <c r="Y40" s="3" t="s">
         <v>466</v>
       </c>
+      <c r="Z40" s="3" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
@@ -6062,6 +6111,9 @@
       <c r="Y41" s="3" t="s">
         <v>512</v>
       </c>
+      <c r="Z41" s="3" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
@@ -6126,6 +6178,7 @@
       <c r="Y42" s="3" t="s">
         <v>494</v>
       </c>
+      <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
@@ -6190,6 +6243,9 @@
       <c r="Y43" s="3" t="s">
         <v>491</v>
       </c>
+      <c r="Z43" s="3" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
@@ -6255,6 +6311,9 @@
       <c r="Y44" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="Z44" s="3" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -6295,6 +6354,9 @@
         <v>45420.5625</v>
       </c>
       <c r="R45" s="32"/>
+      <c r="Z45" s="3" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
@@ -6360,6 +6422,9 @@
       <c r="Y46" s="3" t="s">
         <v>480</v>
       </c>
+      <c r="Z46" s="3" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
@@ -6427,6 +6492,9 @@
       <c r="Y47" s="3" t="s">
         <v>473</v>
       </c>
+      <c r="Z47" s="3" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
@@ -6467,8 +6535,11 @@
         <v>45420.5625</v>
       </c>
       <c r="R48" s="32"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>RIGHT(T49,9)</f>
         <v>20000-002</v>
@@ -6532,8 +6603,11 @@
       <c r="Y49" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f>RIGHT(T50,9)</f>
         <v>20000-002</v>
@@ -6599,8 +6673,11 @@
       <c r="Y50" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f>RIGHT(T51,9)</f>
         <v>20000-002</v>
@@ -6664,8 +6741,9 @@
       <c r="Y51" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="45"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f>RIGHT(T52,9)</f>
         <v>20000-002</v>
@@ -6728,8 +6806,9 @@
       <c r="Y52" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z52" s="45"/>
+    </row>
+    <row r="53" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
         <v>649</v>
       </c>
@@ -6769,8 +6848,11 @@
         <v>45420.5625</v>
       </c>
       <c r="R53" s="32"/>
-    </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" ref="A54:A66" si="12">RIGHT(T54,9)</f>
         <v>20000-002</v>
@@ -6830,7 +6912,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -6901,7 +6983,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -6973,7 +7055,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7045,7 +7127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7114,7 +7196,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7187,7 +7269,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7260,7 +7342,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7330,7 +7412,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7403,7 +7485,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="str">
         <f t="shared" si="12"/>
         <v>44000-001</v>
@@ -7472,7 +7554,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="12"/>
         <v>20000-002</v>
